--- a/origina-info.xlsx
+++ b/origina-info.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Music\webapage\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C028100-32A7-B844-A5E6-1E5A1678DA43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{D77ED3B2-FC3E-4A58-8B10-21C6802F0E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05809ADA-2D42-4114-81BD-929D87A4CC44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="445">
   <si>
     <t>Rank</t>
   </si>
@@ -1364,6 +1359,12 @@
   </si>
   <si>
     <t>some22</t>
+  </si>
+  <si>
+    <t>PPG</t>
+  </si>
+  <si>
+    <t>PPG.png</t>
   </si>
 </sst>
 </file>
@@ -1921,8 +1922,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="E1:L233" totalsRowShown="0">
-  <autoFilter ref="E1:L233" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="E1:L234" totalsRowShown="0">
+  <autoFilter ref="E1:L234" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:L233">
     <sortCondition ref="F1:F233"/>
   </sortState>
@@ -2259,20 +2260,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:N233"/>
+  <dimension ref="E1:N234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J11"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="K233" sqref="K233"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="8" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E1" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="5:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:14" ht="36" customHeight="1" x14ac:dyDescent="0.5">
       <c r="E2">
         <v>37</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E3">
         <v>140</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>100.2128</v>
       </c>
     </row>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E4">
         <v>34</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>18.0763</v>
       </c>
     </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E5">
         <v>209</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>277.94970000000001</v>
       </c>
     </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E6">
         <v>202</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>164.83330000000001</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E7">
         <v>45</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>25.5276</v>
       </c>
     </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E8">
         <v>222</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>163.3956</v>
       </c>
     </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E9">
         <v>200</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>219.72399999999999</v>
       </c>
     </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E10">
         <v>31</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>16.105799999999999</v>
       </c>
     </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E11">
         <v>137</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>99.442899999999995</v>
       </c>
     </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E12">
         <v>196</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>590.63329999999996</v>
       </c>
     </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E13">
         <v>55</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>3.2765</v>
       </c>
     </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E14">
         <v>97</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>106.7723</v>
       </c>
     </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E15">
         <v>90</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>116.0245</v>
       </c>
     </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:14" x14ac:dyDescent="0.5">
       <c r="E16">
         <v>178</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>27.933900000000001</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E17">
         <v>152</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>2145.3229000000001</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E18">
         <v>8</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>1104.8733999999999</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E19">
         <v>183</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>667.5</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E20">
         <v>95</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>45.531799999999997</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E21">
         <v>79</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>377.99160000000001</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E22">
         <v>177</v>
       </c>
@@ -2805,7 +2806,7 @@
         <v>16.997</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E23">
         <v>77</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>104.7855</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E24">
         <v>205</v>
       </c>
@@ -2853,7 +2854,7 @@
         <v>1157.5184999999999</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E25">
         <v>165</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>19.875299999999999</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E26">
         <v>81</v>
       </c>
@@ -2901,7 +2902,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E27">
         <v>135</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>64.461299999999994</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E28">
         <v>145</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>3.9582000000000002</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E29">
         <v>6</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>24.7834</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E30">
         <v>219</v>
       </c>
@@ -2997,7 +2998,7 @@
         <v>198.8742</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E31">
         <v>175</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>75.157799999999995</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E32">
         <v>107</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>63.133000000000003</v>
       </c>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E33">
         <v>59</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>74.446299999999994</v>
       </c>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E34">
         <v>80</v>
       </c>
@@ -3093,7 +3094,7 @@
         <v>414.26240000000001</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E35">
         <v>70</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>91.068299999999994</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E36">
         <v>52</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>54.425899999999999</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E37">
         <v>39</v>
       </c>
@@ -3165,7 +3166,7 @@
         <v>3.7467999999999999</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E38">
         <v>172</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>136.3588</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E39">
         <v>204</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>246.01519999999999</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E40">
         <v>126</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>7.6169000000000002</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E41">
         <v>72</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>12.419700000000001</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E42">
         <v>62</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>25.0655</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E43">
         <v>1</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>147.70679999999999</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E44">
         <v>29</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>44.089799999999997</v>
       </c>
     </row>
-    <row r="45" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E45">
         <v>163</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>456.9742</v>
       </c>
     </row>
-    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E46">
         <v>221</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>74.355900000000005</v>
       </c>
     </row>
-    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E47">
         <v>120</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>98.778099999999995</v>
       </c>
     </row>
-    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E48">
         <v>130</v>
       </c>
@@ -3429,7 +3430,7 @@
         <v>72.981300000000005</v>
       </c>
     </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E49">
         <v>82</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>103.1404</v>
       </c>
     </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E50">
         <v>191</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>368.07209999999998</v>
       </c>
     </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E51">
         <v>158</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>129.5617</v>
       </c>
     </row>
-    <row r="52" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E52">
         <v>86</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>135.53809999999999</v>
       </c>
     </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E53">
         <v>115</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>133.93690000000001</v>
       </c>
     </row>
-    <row r="54" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E54">
         <v>160</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>41.963799999999999</v>
       </c>
     </row>
-    <row r="55" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E55">
         <v>203</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>95.616500000000002</v>
       </c>
     </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E56">
         <v>85</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>220.6439</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E57">
         <v>16</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>37.013100000000001</v>
       </c>
     </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E58">
         <v>67</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>62.756799999999998</v>
       </c>
     </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E59">
         <v>14</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>100.1427</v>
       </c>
     </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E60">
         <v>111</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>306.71319999999997</v>
       </c>
     </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E61">
         <v>154</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>48.34</v>
       </c>
     </row>
-    <row r="62" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E62">
         <v>133</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>29.737400000000001</v>
       </c>
     </row>
-    <row r="63" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E63">
         <v>155</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>29.311</v>
       </c>
     </row>
-    <row r="64" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E64">
         <v>12</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>101.49299999999999</v>
       </c>
     </row>
-    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E65">
         <v>229</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>0.27739999999999998</v>
       </c>
     </row>
-    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E66">
         <v>211</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>34.944699999999997</v>
       </c>
     </row>
-    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E67">
         <v>161</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>48.705800000000004</v>
       </c>
     </row>
-    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E68">
         <v>116</v>
       </c>
@@ -3909,7 +3910,7 @@
         <v>16.346800000000002</v>
       </c>
     </row>
-    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E69">
         <v>22</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>118.0539</v>
       </c>
     </row>
-    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E70">
         <v>182</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>3.4815999999999998</v>
       </c>
     </row>
-    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E71">
         <v>185</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>67.023499999999999</v>
       </c>
     </row>
-    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E72">
         <v>146</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>8.1166999999999998</v>
       </c>
     </row>
-    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E73">
         <v>144</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>219.63759999999999</v>
       </c>
     </row>
-    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E74">
         <v>132</v>
       </c>
@@ -4053,7 +4054,7 @@
         <v>57.342399999999998</v>
       </c>
     </row>
-    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E75">
         <v>17</v>
       </c>
@@ -4077,7 +4078,7 @@
         <v>233.86660000000001</v>
       </c>
     </row>
-    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E76">
         <v>46</v>
       </c>
@@ -4101,7 +4102,7 @@
         <v>127.5205</v>
       </c>
     </row>
-    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E77">
         <v>218</v>
       </c>
@@ -4125,7 +4126,7 @@
         <v>5616.8333000000002</v>
       </c>
     </row>
-    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E78">
         <v>87</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>79.350399999999993</v>
       </c>
     </row>
-    <row r="79" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E79">
         <v>208</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>2.6200000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E80">
         <v>194</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>325.59010000000001</v>
       </c>
     </row>
-    <row r="81" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E81">
         <v>176</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>245.7346</v>
       </c>
     </row>
-    <row r="82" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E82">
         <v>190</v>
       </c>
@@ -4245,7 +4246,7 @@
         <v>304.72500000000002</v>
       </c>
     </row>
-    <row r="83" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E83">
         <v>66</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>161.4623</v>
       </c>
     </row>
-    <row r="84" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E84">
         <v>75</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>51.945799999999998</v>
       </c>
     </row>
-    <row r="85" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E85">
         <v>150</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>53.174300000000002</v>
       </c>
     </row>
-    <row r="86" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E86">
         <v>164</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>3.6413000000000002</v>
       </c>
     </row>
-    <row r="87" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E87">
         <v>83</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>405.8766</v>
       </c>
     </row>
-    <row r="88" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E88">
         <v>93</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>86.638300000000001</v>
       </c>
     </row>
-    <row r="89" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E89">
         <v>104</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>6735.6467000000002</v>
       </c>
     </row>
-    <row r="90" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E90">
         <v>94</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>104.105</v>
       </c>
     </row>
-    <row r="91" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E91">
         <v>180</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>3.2915999999999999</v>
       </c>
     </row>
-    <row r="92" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E92">
         <v>2</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>415.62900000000002</v>
       </c>
     </row>
-    <row r="93" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E93">
         <v>4</v>
       </c>
@@ -4509,7 +4510,7 @@
         <v>142.09280000000001</v>
       </c>
     </row>
-    <row r="94" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E94">
         <v>19</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>50.305900000000001</v>
       </c>
     </row>
-    <row r="95" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E95">
         <v>36</v>
       </c>
@@ -4557,7 +4558,7 @@
         <v>89.683499999999995</v>
       </c>
     </row>
-    <row r="96" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E96">
         <v>124</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>69.478999999999999</v>
       </c>
     </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E97">
         <v>201</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>147.8741</v>
       </c>
     </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E98">
         <v>101</v>
       </c>
@@ -4629,7 +4630,7 @@
         <v>410.17700000000002</v>
       </c>
     </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E99">
         <v>23</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>200.93870000000001</v>
       </c>
     </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E100">
         <v>53</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>79.750399999999999</v>
       </c>
     </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E101">
         <v>138</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>268.2448</v>
       </c>
     </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E102">
         <v>11</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>335.67140000000001</v>
       </c>
     </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E103">
         <v>89</v>
       </c>
@@ -4749,7 +4750,7 @@
         <v>113.0677</v>
       </c>
     </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E104">
         <v>64</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>6.8080999999999996</v>
       </c>
     </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E105">
         <v>27</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>90.587500000000006</v>
       </c>
     </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E106">
         <v>192</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>145.0136</v>
       </c>
     </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E107">
         <v>129</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>236.11420000000001</v>
       </c>
     </row>
-    <row r="108" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E108">
         <v>112</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>32.0871</v>
       </c>
     </row>
-    <row r="109" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E109">
         <v>105</v>
       </c>
@@ -4893,7 +4894,7 @@
         <v>30.276399999999999</v>
       </c>
     </row>
-    <row r="110" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E110">
         <v>151</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>29.5349</v>
       </c>
     </row>
-    <row r="111" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E111">
         <v>108</v>
       </c>
@@ -4941,7 +4942,7 @@
         <v>655.92359999999996</v>
       </c>
     </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E112">
         <v>147</v>
       </c>
@@ -4965,7 +4966,7 @@
         <v>70.013800000000003</v>
       </c>
     </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E113">
         <v>123</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>44.333500000000001</v>
       </c>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E114">
         <v>109</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>3.8517999999999999</v>
       </c>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E115">
         <v>215</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>237.61879999999999</v>
       </c>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E116">
         <v>142</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>42.260800000000003</v>
       </c>
     </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E117">
         <v>169</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>238.1009</v>
       </c>
     </row>
-    <row r="118" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E118">
         <v>167</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>21348.166700000002</v>
       </c>
     </row>
-    <row r="119" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E119">
         <v>148</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>81.027500000000003</v>
       </c>
     </row>
-    <row r="120" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E120">
         <v>51</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>45.941099999999999</v>
       </c>
     </row>
-    <row r="121" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E121">
         <v>63</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>157.22579999999999</v>
       </c>
     </row>
-    <row r="122" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E122">
         <v>44</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>96.582499999999996</v>
       </c>
     </row>
-    <row r="123" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E123">
         <v>173</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>1769.8433</v>
       </c>
     </row>
-    <row r="124" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E124">
         <v>60</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>15.8508</v>
       </c>
     </row>
-    <row r="125" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E125">
         <v>174</v>
       </c>
@@ -5277,7 +5278,7 @@
         <v>1393.5823</v>
       </c>
     </row>
-    <row r="126" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E126">
         <v>206</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>324.81220000000002</v>
       </c>
     </row>
-    <row r="127" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E127">
         <v>179</v>
       </c>
@@ -5325,7 +5326,7 @@
         <v>332.93790000000001</v>
       </c>
     </row>
-    <row r="128" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E128">
         <v>127</v>
       </c>
@@ -5349,7 +5350,7 @@
         <v>4.3909000000000002</v>
       </c>
     </row>
-    <row r="129" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E129">
         <v>157</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>622.38630000000001</v>
       </c>
     </row>
-    <row r="130" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E130">
         <v>186</v>
       </c>
@@ -5397,7 +5398,7 @@
         <v>711.63099999999997</v>
       </c>
     </row>
-    <row r="131" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E131">
         <v>10</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>64.944599999999994</v>
       </c>
     </row>
-    <row r="132" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E132">
         <v>193</v>
       </c>
@@ -5445,7 +5446,7 @@
         <v>162.12960000000001</v>
       </c>
     </row>
-    <row r="133" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E133">
         <v>131</v>
       </c>
@@ -5469,7 +5470,7 @@
         <v>119.4606</v>
       </c>
     </row>
-    <row r="134" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E134">
         <v>213</v>
       </c>
@@ -5493,7 +5494,7 @@
         <v>19289.108899999999</v>
       </c>
     </row>
-    <row r="135" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E135">
         <v>136</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>2.0619999999999998</v>
       </c>
     </row>
-    <row r="136" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E136">
         <v>168</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>45.466799999999999</v>
       </c>
     </row>
-    <row r="137" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E137">
         <v>228</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>48.911799999999999</v>
       </c>
     </row>
-    <row r="138" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E138">
         <v>40</v>
       </c>
@@ -5589,7 +5590,7 @@
         <v>81.674499999999995</v>
       </c>
     </row>
-    <row r="139" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E139">
         <v>47</v>
       </c>
@@ -5613,7 +5614,7 @@
         <v>37.882300000000001</v>
       </c>
     </row>
-    <row r="140" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E140">
         <v>26</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>79.880499999999998</v>
       </c>
     </row>
-    <row r="141" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E141">
         <v>143</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>3.0213999999999999</v>
       </c>
     </row>
-    <row r="142" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E142">
         <v>225</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>512.19050000000004</v>
       </c>
     </row>
-    <row r="143" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E143">
         <v>49</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>194.3777</v>
       </c>
     </row>
-    <row r="144" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E144">
         <v>68</v>
       </c>
@@ -5733,7 +5734,7 @@
         <v>408.53359999999998</v>
       </c>
     </row>
-    <row r="145" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E145">
         <v>184</v>
       </c>
@@ -5757,7 +5758,7 @@
         <v>15.222099999999999</v>
       </c>
     </row>
-    <row r="146" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E146">
         <v>125</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>17.6845</v>
       </c>
     </row>
-    <row r="147" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E147">
         <v>110</v>
       </c>
@@ -5805,7 +5806,7 @@
         <v>50.206000000000003</v>
       </c>
     </row>
-    <row r="148" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E148">
         <v>57</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>18.398399999999999</v>
       </c>
     </row>
-    <row r="149" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E149">
         <v>7</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>217.54769999999999</v>
       </c>
     </row>
-    <row r="150" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E150">
         <v>230</v>
       </c>
@@ -5877,7 +5878,7 @@
         <v>6.2115</v>
       </c>
     </row>
-    <row r="151" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E151">
         <v>54</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>212.93</v>
       </c>
     </row>
-    <row r="152" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E152">
         <v>207</v>
       </c>
@@ -5925,7 +5926,7 @@
         <v>123.3103</v>
       </c>
     </row>
-    <row r="153" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E153">
         <v>119</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>16.611599999999999</v>
       </c>
     </row>
-    <row r="154" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E154">
         <v>122</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>16.074300000000001</v>
       </c>
     </row>
-    <row r="155" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E155">
         <v>5</v>
       </c>
@@ -5997,7 +5998,7 @@
         <v>245.5634</v>
       </c>
     </row>
-    <row r="156" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E156">
         <v>220</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>39.2331</v>
       </c>
     </row>
-    <row r="157" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E157">
         <v>121</v>
       </c>
@@ -6045,7 +6046,7 @@
         <v>800.87139999999999</v>
       </c>
     </row>
-    <row r="158" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E158">
         <v>128</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>56.306100000000001</v>
       </c>
     </row>
-    <row r="159" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E159">
         <v>98</v>
       </c>
@@ -6093,7 +6094,7 @@
         <v>18.961400000000001</v>
       </c>
     </row>
-    <row r="160" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E160">
         <v>106</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>17.319199999999999</v>
       </c>
     </row>
-    <row r="161" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E161">
         <v>43</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>25.2957</v>
       </c>
     </row>
-    <row r="162" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E162">
         <v>13</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>315.80450000000002</v>
       </c>
     </row>
-    <row r="163" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E163">
         <v>38</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>121.17149999999999</v>
       </c>
     </row>
-    <row r="164" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E164">
         <v>88</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>111.04559999999999</v>
       </c>
     </row>
-    <row r="165" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E165">
         <v>139</v>
       </c>
@@ -6237,7 +6238,7 @@
         <v>330.71120000000002</v>
       </c>
     </row>
-    <row r="166" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E166">
         <v>141</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>244.43870000000001</v>
       </c>
     </row>
-    <row r="167" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E167">
         <v>118</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>15.7325</v>
       </c>
     </row>
-    <row r="168" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E168">
         <v>162</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>354.01310000000001</v>
       </c>
     </row>
-    <row r="169" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E169">
         <v>61</v>
       </c>
@@ -6333,7 +6334,7 @@
         <v>81.230199999999996</v>
       </c>
     </row>
-    <row r="170" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E170">
         <v>9</v>
       </c>
@@ -6357,7 +6358,7 @@
         <v>8.5313999999999997</v>
       </c>
     </row>
-    <row r="171" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E171">
         <v>76</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>479.41950000000003</v>
       </c>
     </row>
-    <row r="172" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E172">
         <v>226</v>
       </c>
@@ -6405,7 +6406,7 @@
         <v>468.90480000000002</v>
       </c>
     </row>
-    <row r="173" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E173">
         <v>210</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>202.387</v>
       </c>
     </row>
-    <row r="174" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E174">
         <v>189</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>296.73700000000002</v>
       </c>
     </row>
-    <row r="175" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E175">
         <v>216</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>717.01890000000003</v>
       </c>
     </row>
-    <row r="176" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E176">
         <v>227</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>24.0579</v>
       </c>
     </row>
-    <row r="177" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E177">
         <v>195</v>
       </c>
@@ -6525,7 +6526,7 @@
         <v>284.29050000000001</v>
       </c>
     </row>
-    <row r="178" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E178">
         <v>188</v>
       </c>
@@ -6549,7 +6550,7 @@
         <v>69.351500000000001</v>
       </c>
     </row>
-    <row r="179" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E179">
         <v>217</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>555.08199999999999</v>
       </c>
     </row>
-    <row r="180" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E180">
         <v>187</v>
       </c>
@@ -6597,7 +6598,7 @@
         <v>223.08709999999999</v>
       </c>
     </row>
-    <row r="181" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E181">
         <v>41</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>15.9411</v>
       </c>
     </row>
-    <row r="182" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E182">
         <v>71</v>
       </c>
@@ -6645,7 +6646,7 @@
         <v>82.839600000000004</v>
       </c>
     </row>
-    <row r="183" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E183">
         <v>99</v>
       </c>
@@ -6669,7 +6670,7 @@
         <v>99.277199999999993</v>
       </c>
     </row>
-    <row r="184" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E184">
         <v>199</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>216.23670000000001</v>
       </c>
     </row>
-    <row r="185" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E185">
         <v>103</v>
       </c>
@@ -6717,7 +6718,7 @@
         <v>108.9102</v>
       </c>
     </row>
-    <row r="186" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E186">
         <v>114</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>8175.1225000000004</v>
       </c>
     </row>
-    <row r="187" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E187">
         <v>212</v>
       </c>
@@ -6765,7 +6766,7 @@
         <v>1246.7058999999999</v>
       </c>
     </row>
-    <row r="188" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E188">
         <v>117</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>111.28360000000001</v>
       </c>
     </row>
-    <row r="189" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E189">
         <v>149</v>
       </c>
@@ -6813,7 +6814,7 @@
         <v>102.5331</v>
       </c>
     </row>
-    <row r="190" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E190">
         <v>166</v>
       </c>
@@ -6837,7 +6838,7 @@
         <v>23.180499999999999</v>
       </c>
     </row>
-    <row r="191" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E191">
         <v>73</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>24.2182</v>
       </c>
     </row>
-    <row r="192" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E192">
         <v>24</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>47.957799999999999</v>
       </c>
     </row>
-    <row r="193" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E193">
         <v>28</v>
       </c>
@@ -6909,7 +6910,7 @@
         <v>511.17959999999999</v>
       </c>
     </row>
-    <row r="194" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E194">
         <v>84</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>17.849499999999999</v>
       </c>
     </row>
-    <row r="195" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E195">
         <v>30</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>92.366600000000005</v>
       </c>
     </row>
-    <row r="196" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E196">
         <v>58</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>325.00740000000002</v>
       </c>
     </row>
-    <row r="197" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E197">
         <v>35</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>22.6997</v>
       </c>
     </row>
-    <row r="198" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E198">
         <v>171</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>3.5488</v>
       </c>
     </row>
-    <row r="199" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E199">
         <v>159</v>
       </c>
@@ -7053,7 +7054,7 @@
         <v>66.121300000000005</v>
       </c>
     </row>
-    <row r="200" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E200">
         <v>91</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>22.288499999999999</v>
       </c>
     </row>
-    <row r="201" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E201">
         <v>100</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>208.10400000000001</v>
       </c>
     </row>
-    <row r="202" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E202">
         <v>69</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>92.181299999999993</v>
       </c>
     </row>
-    <row r="203" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E203">
         <v>56</v>
       </c>
@@ -7149,7 +7150,7 @@
         <v>656.86389999999994</v>
       </c>
     </row>
-    <row r="204" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E204">
         <v>96</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>65.136399999999995</v>
       </c>
     </row>
-    <row r="205" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E205">
         <v>25</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>61.375799999999998</v>
       </c>
     </row>
-    <row r="206" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E206">
         <v>20</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>135.69059999999999</v>
       </c>
     </row>
-    <row r="207" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E207">
         <v>156</v>
       </c>
@@ -7245,7 +7246,7 @@
         <v>86.938199999999995</v>
       </c>
     </row>
-    <row r="208" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E208">
         <v>102</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>142.33279999999999</v>
       </c>
     </row>
-    <row r="209" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E209">
         <v>231</v>
       </c>
@@ -7293,7 +7294,7 @@
         <v>111.66670000000001</v>
       </c>
     </row>
-    <row r="210" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E210">
         <v>198</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>139.88489999999999</v>
       </c>
     </row>
-    <row r="211" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E211">
         <v>153</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>271.9246</v>
       </c>
     </row>
-    <row r="212" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E212">
         <v>78</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>71.479200000000006</v>
       </c>
     </row>
-    <row r="213" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E213">
         <v>18</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>106.4748</v>
       </c>
     </row>
-    <row r="214" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E214">
         <v>113</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>12.1739</v>
       </c>
     </row>
-    <row r="215" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E215">
         <v>214</v>
       </c>
@@ -7437,7 +7438,7 @@
         <v>40.285899999999998</v>
       </c>
     </row>
-    <row r="216" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E216">
         <v>223</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>447.92309999999998</v>
       </c>
     </row>
-    <row r="217" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E217">
         <v>32</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>183.273</v>
       </c>
     </row>
-    <row r="218" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E218">
         <v>33</v>
       </c>
@@ -7509,7 +7510,7 @@
         <v>72.897499999999994</v>
       </c>
     </row>
-    <row r="219" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E219">
         <v>92</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>116.8724</v>
       </c>
     </row>
-    <row r="220" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E220">
         <v>21</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>278.01639999999998</v>
       </c>
     </row>
-    <row r="221" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E221">
         <v>3</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>35.109200000000001</v>
       </c>
     </row>
-    <row r="222" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E222">
         <v>197</v>
       </c>
@@ -7605,7 +7606,7 @@
         <v>301.3775</v>
       </c>
     </row>
-    <row r="223" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E223">
         <v>134</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>19.122</v>
       </c>
     </row>
-    <row r="224" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E224">
         <v>42</v>
       </c>
@@ -7653,7 +7654,7 @@
         <v>73.718599999999995</v>
       </c>
     </row>
-    <row r="225" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E225">
         <v>181</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>24.602699999999999</v>
       </c>
     </row>
-    <row r="226" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E226">
         <v>232</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>1815.9091000000001</v>
       </c>
     </row>
-    <row r="227" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E227">
         <v>50</v>
       </c>
@@ -7725,7 +7726,7 @@
         <v>31.1157</v>
       </c>
     </row>
-    <row r="228" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E228">
         <v>15</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>291.2398</v>
       </c>
     </row>
-    <row r="229" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E229">
         <v>224</v>
       </c>
@@ -7773,7 +7774,7 @@
         <v>80.507000000000005</v>
       </c>
     </row>
-    <row r="230" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E230">
         <v>170</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>2.1897000000000002</v>
       </c>
     </row>
-    <row r="231" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E231">
         <v>48</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>55.234299999999998</v>
       </c>
     </row>
-    <row r="232" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E232">
         <v>65</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>23.732099999999999</v>
       </c>
     </row>
-    <row r="233" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:12" x14ac:dyDescent="0.5">
       <c r="E233">
         <v>74</v>
       </c>
@@ -7869,10 +7870,34 @@
         <v>37.479700000000001</v>
       </c>
     </row>
+    <row r="234" spans="5:12" x14ac:dyDescent="0.5">
+      <c r="E234">
+        <v>233</v>
+      </c>
+      <c r="F234" t="s">
+        <v>443</v>
+      </c>
+      <c r="G234" t="s">
+        <v>444</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>2</v>
+      </c>
+      <c r="K234">
+        <v>3</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7885,13 +7910,13 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B1" t="s">
         <v>439</v>
       </c>
@@ -7908,7 +7933,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B2" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Afghanistan</v>
@@ -7928,7 +7953,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B3" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Albania</v>
@@ -7948,7 +7973,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B4" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Algeria</v>
@@ -7968,7 +7993,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B5" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Andorra</v>
@@ -7988,7 +8013,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B6" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Angola</v>
@@ -8008,7 +8033,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B7" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Antigua</v>
@@ -8028,7 +8053,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B8" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Argentina</v>
@@ -8048,7 +8073,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B9" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Armenia</v>
@@ -8068,7 +8093,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B10" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Australia</v>
@@ -8088,7 +8113,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B11" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Austria</v>
@@ -8108,7 +8133,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B12" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Azerbaijan</v>
@@ -8128,7 +8153,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B13" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bahamas</v>
@@ -8148,7 +8173,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B14" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bahrain</v>
@@ -8168,7 +8193,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B15" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bangladesh</v>
@@ -8188,7 +8213,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B16" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Barbados</v>
@@ -8208,7 +8233,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Belarus</v>
@@ -8228,7 +8253,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B18" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Belgium</v>
@@ -8248,7 +8273,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B19" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Belize</v>
@@ -8268,7 +8293,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B20" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Benin</v>
@@ -8288,7 +8313,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B21" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bhutan</v>
@@ -8308,7 +8333,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B22" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bolivia</v>
@@ -8328,7 +8353,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B23" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bosnia-Herzegovina</v>
@@ -8348,7 +8373,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B24" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Botswana</v>
@@ -8368,7 +8393,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B25" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Brazil</v>
@@ -8388,7 +8413,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B26" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Brunei</v>
@@ -8408,7 +8433,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B27" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Bulgaria</v>
@@ -8428,7 +8453,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B28" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Burkina-Faso</v>
@@ -8448,7 +8473,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B29" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Burundi</v>
@@ -8468,7 +8493,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B30" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Cabo-Verde</v>
@@ -8488,7 +8513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B31" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Cambodia</v>
@@ -8508,7 +8533,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B32" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Cameroon</v>
@@ -8528,7 +8553,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B33" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Canada</v>
@@ -8548,7 +8573,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B34" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Central-African-Republic</v>
@@ -8568,7 +8593,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B35" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Chad</v>
@@ -8588,7 +8613,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B36" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Chile</v>
@@ -8608,7 +8633,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B37" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>China</v>
@@ -8628,7 +8653,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B38" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Colombia</v>
@@ -8648,7 +8673,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B39" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Comoros</v>
@@ -8668,7 +8693,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B40" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Congo-Democratic-Republic-of</v>
@@ -8688,7 +8713,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B41" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Congo</v>
@@ -8708,7 +8733,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B42" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Costa-Rica</v>
@@ -8728,7 +8753,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B43" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Cote-d-Ivoire</v>
@@ -8748,7 +8773,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B44" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Croatia</v>
@@ -8768,7 +8793,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B45" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Cuba</v>
@@ -8788,7 +8813,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B46" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Cyprus</v>
@@ -8808,7 +8833,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B47" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Czech-Republic</v>
@@ -8828,7 +8853,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B48" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Denmark</v>
@@ -8848,7 +8873,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B49" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Djibouti</v>
@@ -8868,7 +8893,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B50" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Dominica</v>
@@ -8888,7 +8913,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B51" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Dominican-Republic</v>
@@ -8908,7 +8933,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B52" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Ecuador</v>
@@ -8928,7 +8953,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B53" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Egypt</v>
@@ -8948,7 +8973,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B54" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>El-Salvador</v>
@@ -8968,7 +8993,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B55" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Equatorial-Guinea</v>
@@ -8988,7 +9013,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B56" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Eritrea</v>
@@ -9008,7 +9033,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B57" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Estonia</v>
@@ -9028,7 +9053,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B58" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Eswatini</v>
@@ -9048,7 +9073,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B59" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Ethiopia</v>
@@ -9068,7 +9093,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B60" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Fiji</v>
@@ -9088,7 +9113,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B61" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Finland</v>
@@ -9108,7 +9133,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B62" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>France</v>
@@ -9128,7 +9153,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B63" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Gabon</v>
@@ -9148,7 +9173,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B64" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Gambia</v>
@@ -9168,7 +9193,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B65" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Georgia</v>
@@ -9188,7 +9213,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B66" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Germany</v>
@@ -9208,7 +9233,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B67" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Ghana</v>
@@ -9228,7 +9253,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B68" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Greece</v>
@@ -9248,7 +9273,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B69" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Grenada</v>
@@ -9268,7 +9293,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B70" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Guatemala</v>
@@ -9288,7 +9313,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B71" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Guinea-Bissau</v>
@@ -9308,7 +9333,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B72" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Guinea</v>
@@ -9328,7 +9353,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B73" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Guyana</v>
@@ -9348,7 +9373,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B74" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Haiti</v>
@@ -9368,7 +9393,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B75" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Honduras</v>
@@ -9388,7 +9413,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B76" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Hungary</v>
@@ -9408,7 +9433,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B77" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Iceland</v>
@@ -9428,7 +9453,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B78" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>India</v>
@@ -9448,7 +9473,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B79" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Indonesia</v>
@@ -9468,7 +9493,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B80" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Iran</v>
@@ -9488,7 +9513,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B81" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Iraq</v>
@@ -9508,7 +9533,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B82" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Ireland</v>
@@ -9528,7 +9553,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B83" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Israel</v>
@@ -9548,7 +9573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B84" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Italy</v>
@@ -9568,7 +9593,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B85" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Jamaica</v>
@@ -9588,7 +9613,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B86" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Japan</v>
@@ -9608,7 +9633,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B87" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Jordan</v>
@@ -9628,7 +9653,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B88" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Kazakhstan</v>
@@ -9648,7 +9673,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B89" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Kenya</v>
@@ -9668,7 +9693,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B90" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Kiribati</v>
@@ -9688,7 +9713,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B91" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Korea-North</v>
@@ -9708,7 +9733,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B92" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Korea-South</v>
@@ -9728,7 +9753,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B93" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Kosovo</v>
@@ -9748,7 +9773,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B94" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Kuwait</v>
@@ -9768,7 +9793,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B95" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Kyrgyzstan</v>
@@ -9788,7 +9813,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B96" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Laos</v>
@@ -9808,7 +9833,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B97" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Latvia</v>
@@ -9828,7 +9853,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B98" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Lebanon</v>
@@ -9848,7 +9873,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B99" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Lesotho</v>
@@ -9868,7 +9893,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B100" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Liberia</v>
@@ -9888,7 +9913,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B101" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Libya</v>
@@ -9908,7 +9933,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B102" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Liechtenstein</v>
@@ -9928,7 +9953,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B103" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Lithuania</v>
@@ -9948,7 +9973,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B104" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Luxembourg</v>
@@ -9968,7 +9993,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B105" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Madagascar</v>
@@ -9988,7 +10013,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B106" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Malawi</v>
@@ -10008,7 +10033,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B107" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Malaysia</v>
@@ -10028,7 +10053,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B108" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Maldives</v>
@@ -10048,7 +10073,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B109" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Mali</v>
@@ -10068,7 +10093,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B110" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Malta</v>
@@ -10088,7 +10113,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B111" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Marshall-Islands</v>
@@ -10108,7 +10133,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B112" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Mauritania</v>
@@ -10128,7 +10153,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B113" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Mauritius</v>
@@ -10148,7 +10173,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B114" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Mexico</v>
@@ -10168,7 +10193,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B115" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Micronesia</v>
@@ -10188,7 +10213,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B116" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Moldova</v>
@@ -10208,7 +10233,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B117" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Monaco</v>
@@ -10228,7 +10253,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B118" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Mongolia</v>
@@ -10248,7 +10273,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B119" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Montenegro</v>
@@ -10268,7 +10293,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B120" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Morocco</v>
@@ -10288,7 +10313,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B121" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Mozambique</v>
@@ -10308,7 +10333,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B122" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Myanmar</v>
@@ -10328,7 +10353,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B123" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Namibia</v>
@@ -10348,7 +10373,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B124" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Nauru</v>
@@ -10368,7 +10393,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B125" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Nepal</v>
@@ -10388,7 +10413,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B126" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Netherlands</v>
@@ -10408,7 +10433,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B127" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>New-Zealand</v>
@@ -10428,7 +10453,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B128" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Nicaragua</v>
@@ -10448,7 +10473,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B129" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Niger</v>
@@ -10468,7 +10493,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B130" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Nigeria</v>
@@ -10488,7 +10513,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B131" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>North-Macedonia</v>
@@ -10508,7 +10533,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B132" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Norway</v>
@@ -10528,7 +10553,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B133" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Oman</v>
@@ -10548,7 +10573,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B134" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Pakistan</v>
@@ -10568,7 +10593,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B135" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Palau</v>
@@ -10588,7 +10613,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B136" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Palestine</v>
@@ -10608,7 +10633,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B137" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Panama</v>
@@ -10628,7 +10653,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B138" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Papua-New-Guinea</v>
@@ -10648,7 +10673,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B139" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Paraguay</v>
@@ -10668,7 +10693,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B140" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Peru</v>
@@ -10688,7 +10713,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B141" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Philippines</v>
@@ -10708,7 +10733,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B142" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Poland</v>
@@ -10728,7 +10753,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B143" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Portugal</v>
@@ -10748,7 +10773,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B144" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Qatar</v>
@@ -10768,7 +10793,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B145" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Romania</v>
@@ -10788,7 +10813,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B146" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Russia</v>
@@ -10808,7 +10833,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B147" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Rwanda</v>
@@ -10828,7 +10853,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B148" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Samoa</v>
@@ -10848,7 +10873,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B149" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>San-Marino</v>
@@ -10868,7 +10893,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B150" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Sao-Tome-and-Principe</v>
@@ -10888,7 +10913,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B151" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Saudi-Arabia</v>
@@ -10908,7 +10933,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B152" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Senegal</v>
@@ -10928,7 +10953,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B153" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Serbia</v>
@@ -10948,7 +10973,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B154" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Seychelles</v>
@@ -10968,7 +10993,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B155" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Sierra-Leone</v>
@@ -10988,7 +11013,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B156" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Singapore</v>
@@ -11008,7 +11033,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B157" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Slovakia</v>
@@ -11028,7 +11053,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B158" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Slovenia</v>
@@ -11048,7 +11073,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B159" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Solomon-Islands</v>
@@ -11068,7 +11093,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B160" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Somalia</v>
@@ -11088,7 +11113,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B161" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>South-Africa</v>
@@ -11108,7 +11133,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B162" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>South-Sudan</v>
@@ -11128,7 +11153,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B163" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Spain</v>
@@ -11148,7 +11173,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B164" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Sri-Lanka</v>
@@ -11168,7 +11193,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B165" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>St-Kitts-Nevis</v>
@@ -11188,7 +11213,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B166" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>St-Lucia</v>
@@ -11208,7 +11233,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B167" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>St-Vincent-the-Grenadines</v>
@@ -11228,7 +11253,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B168" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Sudan</v>
@@ -11248,7 +11273,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B169" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Suriname</v>
@@ -11268,7 +11293,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B170" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Sweden</v>
@@ -11288,7 +11313,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B171" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Switzerland</v>
@@ -11308,7 +11333,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B172" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Syria</v>
@@ -11328,7 +11353,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B173" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Taiwan</v>
@@ -11348,7 +11373,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B174" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Tajikistan</v>
@@ -11368,7 +11393,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B175" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Tanzania</v>
@@ -11388,7 +11413,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B176" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Thailand</v>
@@ -11408,7 +11433,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B177" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Timor-Leste</v>
@@ -11428,7 +11453,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B178" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Togo</v>
@@ -11448,7 +11473,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B179" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Tonga</v>
@@ -11468,7 +11493,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B180" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Trinidad-and-Tobago</v>
@@ -11488,7 +11513,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B181" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Tunisia</v>
@@ -11508,7 +11533,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B182" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Turkey</v>
@@ -11528,7 +11553,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B183" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Turkmenistan</v>
@@ -11548,7 +11573,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B184" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Tuvalu</v>
@@ -11568,7 +11593,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B185" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Uganda</v>
@@ -11588,7 +11613,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B186" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Ukraine</v>
@@ -11608,7 +11633,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B187" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>United-Arab-Emirates</v>
@@ -11628,7 +11653,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B188" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>United-Kingdom</v>
@@ -11648,7 +11673,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B189" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>United-States-of-America</v>
@@ -11668,7 +11693,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B190" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Uruguay</v>
@@ -11688,7 +11713,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B191" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Uzbekistan</v>
@@ -11708,7 +11733,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B192" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Vanuatu</v>
@@ -11728,7 +11753,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B193" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Vatican-City</v>
@@ -11748,7 +11773,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B194" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Venezuela</v>
@@ -11768,7 +11793,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B195" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Vietnam</v>
@@ -11788,7 +11813,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B196" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Yemen</v>
@@ -11808,7 +11833,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B197" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Zambia</v>
@@ -11828,7 +11853,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B198" t="str">
         <f ca="1">LEFT(Table3[[#This Row],[code]],LEN(Table3[[#This Row],[code]])-4)</f>
         <v>Zimbabwe</v>
@@ -11850,8 +11875,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
+</clbl:labelList>
 </file>